--- a/289太平.xlsx
+++ b/289太平.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,344 +383,2540 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>太平金融大厦</t>
+          <t>"太平金融大厦"</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|0|][浦东新区(310115)|AREA|0|]浦东区[银城中路()|ROAD|1|488号$]</t>
+          <t>"[上海市(310000)|CITY|0|][浦东新区(310115)|AREA|0|]浦东区[银城中路()|ROAD|1|488号$]"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>13526625.436062</t>
+          <t>"13526625.436062"</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3641569.798729</t>
+          <t>"3641569.798729"</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(021)58401888</t>
+          <t>"(021)58401888"</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>中国太平(卡园三路)</t>
+          <t>"中国太平(卡园三路)"</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][卡园三路()|ROAD|0|]卡园3路58号</t>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][卡园三路()|ROAD|0|]卡园3路58号"</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>13545217.8514</t>
+          <t>"13545217.8514"</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3641733.28843</t>
+          <t>"3641733.28843"</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(021)38578888</t>
+          <t>"(021)38578888"</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>太平村</t>
+          <t>"太平村"</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|]</t>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|]"</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13532140.3798</t>
+          <t>"13532140.3798"</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3627131.97855</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>"3627131.97855"</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>上海宝山太平货柜有限公司</t>
+          <t>"上海宝山太平货柜有限公司"</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|0|][宝山区(310113)|AREA|0|][宝杨路()|ROAD|1|2020号$]</t>
+          <t>"[上海市(310000)|CITY|0|][宝山区(310113)|AREA|0|][宝杨路()|ROAD|1|2020号$]"</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13522224.5653</t>
+          <t>"13522224.5653"</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3661531.79146</t>
+          <t>"3661531.79146"</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(021)33791788</t>
+          <t>"(021)33791788"</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>太平村</t>
+          <t>"太平村"</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][嘉定区(310114)|AREA|1|][宝园五路()|ROAD|0|]</t>
+          <t>"[上海市(310000)|CITY|1|][嘉定区(310114)|AREA|1|][宝园五路()|ROAD|0|]"</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>13499722.9557</t>
+          <t>"13499722.9557"</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3647127.95869</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
+          <t>"3647127.95869"</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>太平禅寺</t>
+          <t>"太平禅寺"</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][宝山区(310113)|AREA|1|][富联路()|ROAD|1|328弄28号$]</t>
+          <t>"[上海市(310000)|CITY|1|][宝山区(310113)|AREA|1|][富联路()|ROAD|1|328弄28号$]"</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>13516341.764</t>
+          <t>"13516341.764"</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3657448.30002</t>
+          <t>"3657448.30002"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(021)56181655</t>
+          <t>"(021)56181655"</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>太平数码一期</t>
+          <t>"太平数码一期"</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][徐汇区(310104)|AREA|1|][漕溪北路()|ROAD|1|41号$]</t>
+          <t>"[上海市(310000)|CITY|1|][徐汇区(310104)|AREA|1|][漕溪北路()|ROAD|1|41号$]"</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13519348.7648</t>
+          <t>"13519348.7648"</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3636210.08949</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr"/>
+          <t>"3636210.08949"</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>太平人寿大厦</t>
+          <t>"太平人寿大厦"</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][民生路()|ROAD|1|1399号$]</t>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][民生路()|ROAD|1|1399号$]"</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13531811.0075</t>
+          <t>"13531811.0075"</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3640306.15351</t>
+          <t>"3640306.15351"</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(021)50614888</t>
+          <t>"(021)50614888"</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>新天地太平湖</t>
+          <t>"新天地太平湖"</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|][湖滨路()|ROAD|1|168号$]</t>
+          <t>"[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|][湖滨路()|ROAD|1|168号$]"</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr"/>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>太平村</t>
+          <t>"太平村"</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][金山区(310116)|AREA|1|][吕新路()|ROAD|1|]</t>
+          <t>"[上海市(310000)|CITY|1|][金山区(310116)|AREA|1|][吕新路()|ROAD|1|]"</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>"0"</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>张湾村二区36号楼</t>
+          <t>"张湾村二区36号楼"</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[北京市(131)|CITY|0|NONE][丰台区(2305)|AREA|1|NONE]韩庄子北[丰台南路()|ROAD|0|NONE]</t>
+          <t>"[北京市(131)|CITY|0|NONE][丰台区(2305)|AREA|1|NONE]韩庄子北[丰台南路()|ROAD|0|NONE]"</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12959344.79</t>
+          <t>"12959344.79"</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4825334.48</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>"4825334.48"</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>太平花园</t>
+          <t>"太平花园"</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|0|][静安区(310106)|AREA|0|][陕西北路()|ROAD|1|]470弄1-40号</t>
+          <t>"[上海市(310000)|CITY|0|][静安区(310106)|AREA|0|][陕西北路()|ROAD|1|]470弄1-40号"</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13520928.9724</t>
+          <t>"13520928.9724"</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3641214.35245</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr"/>
+          <t>"3641214.35245"</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>太平村</t>
+          <t>"太平村"</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|]</t>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|]"</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13555047.4796</t>
+          <t>"13555047.4796"</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>3639432.16291</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>"3639432.16291"</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>太平村</t>
+          <t>"太平村"</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>[上海市(310000)|CITY|1|][奉贤区(310120)|AREA|1|][立九路()|ROAD|0|]</t>
+          <t>"[上海市(310000)|CITY|1|][奉贤区(310120)|AREA|1|][立九路()|ROAD|0|]"</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13516969.6687</t>
+          <t>"13516969.6687"</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>3595929.41658</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>"3595929.41658"</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>"太平路"</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市虹口区", "addr": "上海市虹口区"}</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>"太平路"</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市崇明区", "addr": "上海市崇明区"}</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>"太平人寿"</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][浦东新区(310115)|AREA|0|][世纪大道()|ROAD|1|1168号$][东方金融广场(17670826401684520959)|POI_PARENT|1|17楼$]"</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>"中国太平洋保险(集团)股份有限公司(桂林路店)"</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][闵行区(310112)|AREA|1|][桂林路()|ROAD|1|929号$]"</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>"13516583.102719"</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>"3635308.4706004"</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>"(021)33968114"</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>"全家便利店(太平金融大厦店)"</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][浦东新区(310115)|AREA|0|][花园石桥路()|ROAD|1|68号$][太平金融大厦(17670826375914717183)|POI_PARENT|1|1层$]"</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>"(021)50453716"</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>"太平港"</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][金山区(310116)|AREA|1|]"</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>"太平村"</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市金山区", "addr": "吕巷一路"}</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>"张湾村二区36号楼"</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>"[北京市(131)|CITY|0|NONE][丰台区(2305)|AREA|1|NONE]韩庄子北[丰台南路()|ROAD|0|NONE]"</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>"12959344.79"</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>"4825334.48"</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>"太平航运大厦"</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][虹口区(310109)|AREA|1|][公平路()|ROAD|1|18号5栋$]附近"</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>"太平人寿保险(民生路店)"</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][民生路()|ROAD|1|1403号$]"</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>"13531818.6703"</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>"3640304.29089"</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>"(021)62727777"</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>"太平村"</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][夏洲路()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>"13550250.6386"</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>"3636061.56955"</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>"上海港国际客运码头"</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][虹口区(310109)|AREA|0|][太平路()|ROAD|1|1号$]"</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>"13525892.0403"</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>"3643311.67001"</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>"太平金融科技服务(上海)有限公司"</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][卡园三路()|ROAD|1|58号$](卡园三路华东路)"</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>"13545212.001873"</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>"3641732.8065304"</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>"(021)38578888"</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>"太平金融大厦-正门"</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][银城中路()|ROAD|1|488号$]"</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>"13526626.4543"</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>"3641576.46766"</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>"老太平弄"</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市黄浦区", "addr": "上海市黄浦区"}</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>"太平坊"</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][静安区(310106)|AREA|1|][康定路()|ROAD|1|]1353弄1-25号"</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>"13518610.1583"</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>"3641075.8773"</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>"太平报恩寺"</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][杨浦区(310110)|AREA|0|][丹阳路()|ROAD|1|169号$]"</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>"13529905.7305"</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>"3644679.62357"</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>"太平人寿"</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|]南京东路街道城区[延安东路()|ROAD|1|550号$][海洋大厦(17997718252368691199)|POI_PARENT|1|15楼$]太平人寿保险有限公司"</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>"张湾村二区36号楼"</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>"[北京市(131)|CITY|0|NONE][丰台区(2305)|AREA|1|NONE]韩庄子北[丰台南路()|ROAD|0|NONE]"</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>"12959344.79"</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>"4825334.48"</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>"中华路/老太平弄(路口)"</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|][中华路()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>"太平村"</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市崇明区", "addr": "南海线"}</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>"太平四队"</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][奉贤区(310120)|AREA|1|][平庄东路()|ROAD|0|]"</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>"太平村"</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市嘉定区", "addr": "嘉定121路"}</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>"太平小区"</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][上南路()|ROAD|1|]6611弄"</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>"13817566388"</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>"太平金融大厦-地下停车场"</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][花园石桥路()|ROAD|1|68号$]"</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>"13526605"</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>"3641527.8"</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>"太平村"</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市浦东新区", "addr": "周康3路"}</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>"太平路"</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市浦东新区", "addr": "上海市浦东新区"}</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>"太平保险公司"</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][奉贤区(310120)|AREA|1|]南桥镇[环城东路()|ROAD|1|383号$]丽洲大厦3楼太平保险公司"</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>"上海市浦东新区康桥实验小学"</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|]太平村支路"</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>"13532180.6831"</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>"3626992.92546"</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>"张湾村二区36号楼"</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>"[北京市(131)|CITY|0|NONE][丰台区(2305)|AREA|1|NONE]韩庄子北[丰台南路()|ROAD|0|NONE]"</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>"12959344.79"</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>"4825334.48"</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>"上海太平国际货柜公司"</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][嘉定区(310114)|AREA|1|][嘉朱公路()|ROAD|1|2667号$]"</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>"13490241.9923"</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>"3666906.92355"</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>"(021)69021200"</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>"太平村"</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][金山区(310116)|AREA|1|][海秀路()|ROAD|0|]梦想家园(海秀路西)"</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>"梧桐人家中国太平国际健康颐养社区"</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][忘忧路()|ROAD|1|]100弄"</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>"(021)58080909"</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>"陈海公路与太平路交叉口"</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][崇明区(310151)|AREA|1|][S128()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>"星巴克(金外滩花园店)"</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|][老太平弄()|ROAD|1|100号$]"</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>"13526262.4482"</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>"3640169.94793"</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>"(021)63232170"</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>"太平船舶管理"</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][虹口区(310109)|AREA|0|][公平路()|ROAD|0|]提篮桥街道公平路18号5栋太平航运大厦7楼"</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>"13527140.9465"</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>"3643745.49584"</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>"太平船务"</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][虹口区(310109)|AREA|1|][公平路()|ROAD|1|18号-5栋$]"</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>"太平养老院"</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][浦东新区(310115)|AREA|0|][望春花路()|ROAD|0|]周浦镇康新公路与望春花路交叉口"</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>"太平村支路"</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市浦东新区", "addr": "上海市浦东新区"}</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>"太平人寿大厦-停车场"</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][浦东新区(310115)|AREA|0|][民生路()|ROAD|1|1399号$][太平人寿大厦(17998006410314514431)|POI_PARENT|1|]"</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>"13531860.4345"</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>"3640313.6598"</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>"张湾村二区36号楼"</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>"[北京市(131)|CITY|0|NONE][丰台区(2305)|AREA|1|NONE]韩庄子北[丰台南路()|ROAD|0|NONE]"</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>"12959344.79"</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>"4825334.48"</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>"外咸瓜街/老太平弄(路口)"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|][外咸瓜街()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>"中国太平"</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][世博大道()|ROAD|1|1200号$]东北90米"</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>"太平竖河"</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][崇明区(310151)|AREA|1|][太平路()|ROAD|0|]丁棚南桥南(098乡道东)"</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>"13505563.2004"</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>"3701345.83151"</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>"太平七队"</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][奉贤区(310120)|AREA|1|]X405([奉干公路()|ROAD|1|])"</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>"老太平弄/中山南路(路口)"</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|][老太平弄()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>"中国石化(协通加油站)"</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][嘉定区(310114)|AREA|1|][曹安公路()|ROAD|1|4181号$]"</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>"13499179"</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>"3646931"</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>"宝燕壹号(民生路店)"</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][民生路()|ROAD|1|][太平人寿大厦(17998006410314514431)|POI_PARENT|1|1层$]"</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>"13531791.3668"</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>"3640368.77635"</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>"(021)66877777"</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>"太平超市"</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][浦东新区(310115)|AREA|0|][康梧路()|ROAD|1|]与梓康路交叉口西南50米"</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>"太平村卫生站"</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][嘉定区(310114)|AREA|0|][宝园六路()|ROAD|1|260$]"</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>"13500000"</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>"3647527"</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>"上海国际港务大厦-停车场"</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][虹口区(310109)|AREA|1|][东大名路()|ROAD|1|358号$]"</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>"13525749.724"</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>"3643201.21142"</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>"张湾村二区36号楼"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>"[北京市(131)|CITY|0|NONE][丰台区(2305)|AREA|1|NONE]韩庄子北[丰台南路()|ROAD|0|NONE]"</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>"12959344.79"</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>"4825334.48"</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>"浦东新区周浦镇小学"</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][文康路()|ROAD|0|]太平弄2号"</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>"13535312.8181"</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>"3626538.7315"</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>"(021)58112162"</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>"太平竖河"</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][崇明区(310151)|AREA|1|][太平路()|ROAD|0|]"</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>"太平猴魁"</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][静安区(310106)|AREA|1|][老沪太路()|ROAD|1|104号$]临附近"</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>"15921540840,13170292545"</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>"南平路太平村"</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市青浦区", "addr": "白鹤2路"}</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>"太平六队"</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][奉贤区(310120)|AREA|1|][X405()|ROAD|0|]"</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>"华洲路太平村"</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市浦东新区", "addr": "1054路;川沙3路;浦东3路"}</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>"顾东村太平14"</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][顾曹公路()|ROAD|1|]与顾高公路交叉口南50米"</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>"老太平弄/外马路(路口)"</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|][外马路()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>"上海十六铺粮油食品交易市场"</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][黄浦区(310101)|AREA|0|][老太平弄()|ROAD|1|189号$]"</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>"13526099.795524"</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>"3640114.1935519"</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>"(021)63301236"</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>"太平港桥"</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][金山区(310116)|AREA|1|]太平港桥([茸卫公路()|ROAD|1|])"</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>"13503880.3161"</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>"3576911.47084"</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>"张湾村二区36号楼"</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>"[北京市(131)|CITY|0|NONE][丰台区(2305)|AREA|1|NONE]韩庄子北[丰台南路()|ROAD|0|NONE]"</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>"12959344.79"</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>"4825334.48"</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>"太平花园-西门"</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][静安区(310106)|AREA|1|][陕西北路()|ROAD|1|]470弄1-40号"</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>"太平铝合金店"</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][松江区(310117)|AREA|1|][松江中山二路()|ROAD|0|]中山二路533号"</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>"太平路/永新路(路口)"</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][崇明区(310151)|AREA|1|][太平路()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>"宝燕壹号民生路店-地上停车场"</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][浦东新区(310115)|AREA|0|][民生路()|ROAD|1|1399号$]太平人寿大厦1层"</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>"太平桥/太平路(路口)"</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][X614()|ROAD|0|]"</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>"美寓公寓"</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|][老太平弄()|ROAD|1|]209弄2号楼"</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>"(021)80187829-127233"</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>"宏海公路与太平路交叉口"</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][崇明区(310151)|AREA|1|][X533()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>"上海市浦东新区政府采购中心"</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|0|][浦东新区(310115)|AREA|0|][民生路()|ROAD|1|1399号$][太平人寿大厦(17998006410314514431)|POI_PARENT|1|13层$]"</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>"13531820"</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>"3640305"</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>"太平路/高桥路(路口)"</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][崇明区(310151)|AREA|1|][太平路()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>"十一墩街与太平路交叉口"</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][十一墩街()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>"张湾村二区36号楼"</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>"[北京市(131)|CITY|0|NONE][丰台区(2305)|AREA|1|NONE]韩庄子北[丰台南路()|ROAD|0|NONE]"</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>"12959344.79"</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>"4825334.48"</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>"华洲路/太平路(路口)"</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][华洲路()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>"东姚家弄与老太平弄交叉口"</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][黄浦区(310101)|AREA|1|][中华路()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>"夏洲路/太平路(路口)"</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|][太平路()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>"为民路/太平路(路口)"</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][崇明区(310151)|AREA|1|][太平路()|ROAD|1|]"</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>"太平稽核中心"</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>"[上海市(310000)|CITY|1|][浦东新区(310115)|AREA|1|]陆家嘴街道[银城中路()|ROAD|1|488号$][太平金融大厦(17670826375914717183)|POI_PARENT|1|803$]a太平稽核中心"</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>""</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>"江平路太平村"</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>{"area_name": "上海市青浦区", "addr": "白鹤2路"}</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>"0"</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>null</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
